--- a/docs/UKCore-Practitioner-1-0-0.xlsx
+++ b/docs/UKCore-Practitioner-1-0-0.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="349">
   <si>
     <t>Path</t>
   </si>
@@ -596,6 +596,113 @@
   </si>
   <si>
     <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.identifier.system</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.identifier.value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>sdsRoleProfileID</t>
@@ -932,6 +1039,48 @@
   </si>
   <si>
     <t>.playingEntity.playingRole[classCode=QUAL].scoper</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.reference</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.identifier</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.identifier.id</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.identifier.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.identifier.use</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.identifier.type</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.identifier.system</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.identifier.value</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.identifier.period</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.qualification.issuer.display</t>
   </si>
   <si>
     <t>Practitioner.communication</t>
@@ -1104,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM53"/>
+  <dimension ref="A1:AM95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1113,7 +1262,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.05078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.61328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3384,11 +3533,9 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>187</v>
       </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3397,7 +3544,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3406,21 +3553,19 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3468,47 +3613,47 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3520,15 +3665,17 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3565,31 +3712,31 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
@@ -3606,18 +3753,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3626,19 +3773,19 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3676,37 +3823,37 @@
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3717,7 +3864,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3734,26 +3881,24 @@
         <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3777,13 +3922,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3801,7 +3946,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3816,10 +3961,10 @@
         <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3830,7 +3975,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3853,20 +3998,18 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3890,13 +4033,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3914,7 +4057,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3929,10 +4072,10 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3943,7 +4086,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3951,7 +4094,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
@@ -3963,35 +4106,31 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>40</v>
@@ -4027,7 +4166,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4039,16 +4178,16 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
@@ -4056,18 +4195,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4076,19 +4215,19 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4102,7 +4241,7 @@
         <v>40</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>40</v>
@@ -4126,40 +4265,40 @@
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4167,7 +4306,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4184,22 +4323,26 @@
         <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4223,13 +4366,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4247,7 +4390,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4262,13 +4405,13 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4276,7 +4419,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4299,18 +4442,20 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4334,13 +4479,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4358,7 +4503,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4373,13 +4518,13 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4387,7 +4532,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4410,26 +4555,24 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P30" t="s" s="2">
-        <v>195</v>
-      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4437,7 +4580,7 @@
         <v>40</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>40</v>
@@ -4473,7 +4616,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4488,21 +4631,21 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4513,7 +4656,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4525,20 +4668,18 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4550,7 +4691,7 @@
         <v>40</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>40</v>
@@ -4586,13 +4727,13 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4601,13 +4742,13 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4615,7 +4756,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4626,7 +4767,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4638,20 +4779,16 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4699,13 +4836,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4714,13 +4851,13 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4728,7 +4865,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4739,7 +4876,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4751,20 +4888,18 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4812,13 +4947,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4827,13 +4962,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4841,7 +4976,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4864,18 +4999,18 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -4899,13 +5034,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4923,7 +5058,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4938,13 +5073,13 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>232</v>
+        <v>93</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -4952,9 +5087,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
@@ -4963,7 +5100,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -4975,17 +5112,17 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5034,13 +5171,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5049,21 +5186,21 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5074,7 +5211,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5086,18 +5223,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5145,28 +5280,28 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5174,11 +5309,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5197,15 +5332,17 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>251</v>
+        <v>97</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5242,19 +5379,19 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5266,16 +5403,16 @@
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5283,7 +5420,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5300,22 +5437,26 @@
         <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5339,13 +5480,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5363,7 +5504,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5375,13 +5516,13 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -5392,18 +5533,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5412,21 +5553,23 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5450,13 +5593,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5474,25 +5617,25 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5503,55 +5646,55 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>40</v>
@@ -5587,28 +5730,28 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
@@ -5616,7 +5759,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>161</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5624,10 +5767,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5636,21 +5779,21 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>162</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5662,7 +5805,7 @@
         <v>40</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>40</v>
@@ -5698,13 +5841,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5713,13 +5856,13 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -5727,7 +5870,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5747,16 +5890,16 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5807,7 +5950,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5819,16 +5962,16 @@
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -5836,18 +5979,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
@@ -5856,19 +5999,19 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5906,40 +6049,40 @@
         <v>40</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
@@ -5947,7 +6090,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5964,26 +6107,22 @@
         <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6007,13 +6146,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6031,7 +6170,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6043,13 +6182,13 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6060,18 +6199,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6080,23 +6219,21 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6120,49 +6257,49 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6173,7 +6310,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6196,20 +6333,18 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6221,7 +6356,7 @@
         <v>40</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>40</v>
@@ -6257,7 +6392,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6266,19 +6401,19 @@
         <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
@@ -6286,7 +6421,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6309,16 +6444,16 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6332,7 +6467,7 @@
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>40</v>
@@ -6344,13 +6479,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6368,7 +6503,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6383,13 +6518,13 @@
         <v>62</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>40</v>
@@ -6397,7 +6532,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6420,15 +6555,17 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6477,7 +6614,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6492,13 +6629,13 @@
         <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6506,7 +6643,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6526,20 +6663,18 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6588,7 +6723,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6600,16 +6735,16 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>40</v>
@@ -6617,18 +6752,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>40</v>
@@ -6640,15 +6775,17 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>277</v>
+        <v>97</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6673,52 +6810,52 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>40</v>
@@ -6726,7 +6863,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6743,23 +6880,25 @@
         <v>40</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="N51" t="s" s="2">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6784,13 +6923,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -6808,7 +6947,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>283</v>
+        <v>137</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6823,13 +6962,13 @@
         <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>287</v>
+        <v>138</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>40</v>
@@ -6837,7 +6976,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6857,19 +6996,23 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>290</v>
+        <v>141</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -6893,13 +7036,13 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
@@ -6917,7 +7060,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6932,10 +7075,10 @@
         <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>292</v>
+        <v>138</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -6946,7 +7089,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6957,7 +7100,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -6966,22 +7109,22 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -6994,7 +7137,7 @@
         <v>40</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>40</v>
@@ -7006,13 +7149,13 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
@@ -7030,13 +7173,13 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7045,20 +7188,4688 @@
         <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM53">
+  <autoFilter ref="A1:AM95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7068,7 +11879,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
